--- a/Data/checkWork - 25.06.23.xlsx
+++ b/Data/checkWork - 25.06.23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\הערות פיתוח פנימי\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E6AF66-2A41-4CEB-837F-72649D7B5C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D75A83B-4EC5-4F9C-A9CE-97193A6A2689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="450">
   <si>
     <t>שלב מס'</t>
   </si>
@@ -155,18 +155,6 @@
     <t>מקום בטוח</t>
   </si>
   <si>
-    <t>מקום בטוח שלי</t>
-  </si>
-  <si>
-    <t>הזמנה למקום בטוח בגן בוטני</t>
-  </si>
-  <si>
-    <t>מקום בטוח שלי עם מוסיקה</t>
-  </si>
-  <si>
-    <t>הזמנה למקום בטוח בגן בוטני עם מוסיקה</t>
-  </si>
-  <si>
     <t>2.1.2</t>
   </si>
   <si>
@@ -191,12 +179,6 @@
     <t>הפחתת כאב או רגשות שליליים</t>
   </si>
   <si>
-    <t>מסע במערכת העיכול והרגעת הכאב</t>
-  </si>
-  <si>
-    <t>מסע במערכת העיכול והרגעת הכאב עם מוסיקה</t>
-  </si>
-  <si>
     <t>2.2.2</t>
   </si>
   <si>
@@ -212,9 +194,6 @@
     <t>2.3.</t>
   </si>
   <si>
-    <t>הפחתת כאב ושימוש במקום בטוח שלי</t>
-  </si>
-  <si>
     <t>2.3.1</t>
   </si>
   <si>
@@ -224,10 +203,6 @@
     <t>הקדמה והסבר להתמודדות עם דפוסי חשיבה</t>
   </si>
   <si>
-    <t>דחק וחשיבה
-זיהוי סיטואציה לא נעימה - מה אנו חושבים, מרגישים וכיצד מגיבים</t>
-  </si>
-  <si>
     <t>זיהוי אמונות הליבה אוטומטיות שלי</t>
   </si>
   <si>
@@ -243,45 +218,6 @@
     <t>3.3.</t>
   </si>
   <si>
-    <t>איתגור אמונת הליבה "אני זקוק/ה לאהבה, אישור וקבלה מהסובבים אותי"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "אני חייב/ת להמנע מחוסר קבלה"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "אני מוכרח/ת להצליח בכל מעשיי"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "אני לא יכול/ה להרשות לעצמי לעשות טעויות"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "אנשים תמיד צריכים לעשות את הדבר הנכון אחרת עליהם להיענש"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "דברים חייבים להיעשות בדרכי"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "חוסר האושר שלי נגרם מדברים שהם מחוץ לשליטתי"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "אני מוכרח לדאוג מכל דבר מסוכן"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "כל אחד צריך להיות תלוי במישהו חזק ממנו"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "אירועים בעברי הם הסיבה לבעיותיי בהווה"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "אני צריך/ה להיות מוטרד ולא מאושר כשאנשים אחרים מוטרדים או לא מאושרים"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "אני לא אמור/ה להרגיש אי נוחות או כאב"</t>
-  </si>
-  <si>
-    <t>איתגור אמונת הליבה "לכל בעיה יש את הפתרון האידאלי שלה"</t>
-  </si>
-  <si>
     <t>3.3.1</t>
   </si>
   <si>
@@ -327,9 +263,6 @@
     <t>3.4.</t>
   </si>
   <si>
-    <t>זיהוי אמונות הליבה שלי - על ארוע דחק שקרה לי לאחרונה</t>
-  </si>
-  <si>
     <t>3.4.1</t>
   </si>
   <si>
@@ -342,9 +275,6 @@
     <t>3.5.</t>
   </si>
   <si>
-    <t>זיהוי כלל ההטיות הקוגניטיביות שאני נוהג/ת להשתמש</t>
-  </si>
-  <si>
     <t>3.5.1</t>
   </si>
   <si>
@@ -354,36 +284,6 @@
     <t>3.6.</t>
   </si>
   <si>
-    <t>איתגור ההטיה הקוגניטיבית "הסקה שרירותית"</t>
-  </si>
-  <si>
-    <t>איתגור ההטיה הקוגניטיבית "פרסונליזציה"</t>
-  </si>
-  <si>
-    <t>איתגור ההטיה הקוגניטיבית "חשיבה דיכוטומית"</t>
-  </si>
-  <si>
-    <t>איתגור ההטיה הקוגניטיבית "קריאת מחשבות"</t>
-  </si>
-  <si>
-    <t>איתגור ההטיה הקוגניטיבית "חיזוי העתיד"</t>
-  </si>
-  <si>
-    <t>איתגור ההטיה הקוגניטיבית "הסקה רגשית"</t>
-  </si>
-  <si>
-    <t>איתגור ההטיה הקוגניטיבית "היגדים מוחלטים"</t>
-  </si>
-  <si>
-    <t>איתגור ההטיה הקוגניטיבית "תיוג"</t>
-  </si>
-  <si>
-    <t>איתגור ההטיה הקוגניטיבית "הכללה סלקטיבית"</t>
-  </si>
-  <si>
-    <t>איתגור ההטיה הקוגניטיבית "הקטנה/הגדלה"</t>
-  </si>
-  <si>
     <t>3.6.1</t>
   </si>
   <si>
@@ -420,21 +320,12 @@
     <t>3.7.</t>
   </si>
   <si>
-    <t>זיהוי ההטיות הקוגניטיביות שלי - על ארוע דחק שקרה לי לאחרונה</t>
-  </si>
-  <si>
-    <t>הפרחת ההטיות הקוגניטיביות שלי ואימוץ חשיבה חיובית יותר</t>
-  </si>
-  <si>
     <t>מידור במקום ובזמן</t>
   </si>
   <si>
     <t>3.8.</t>
   </si>
   <si>
-    <t>מידור במקום ובזמן עם מוסיקה</t>
-  </si>
-  <si>
     <t>3.8.1</t>
   </si>
   <si>
@@ -477,9 +368,6 @@
     <t>4.3.1</t>
   </si>
   <si>
-    <t>מדיטציית קשב פתוח מקוצרת</t>
-  </si>
-  <si>
     <t>4.3.2</t>
   </si>
   <si>
@@ -498,21 +386,9 @@
     <t>4.5.</t>
   </si>
   <si>
-    <t>זיהוי החץ הראשון והשני במקרה שקרה לי</t>
-  </si>
-  <si>
     <t>4.4.1</t>
   </si>
   <si>
-    <t>מדיטציית רגשות</t>
-  </si>
-  <si>
-    <t>מדיטציית רגשות מקוצרת</t>
-  </si>
-  <si>
-    <t>מדיטציית רגשות עם מוסיקה</t>
-  </si>
-  <si>
     <t>4.5.1</t>
   </si>
   <si>
@@ -526,9 +402,6 @@
   </si>
   <si>
     <t>4.6.</t>
-  </si>
-  <si>
-    <t>מדיטציית חמלה עם מוסיקה</t>
   </si>
   <si>
     <t>4.6.1</t>
@@ -547,102 +420,6 @@
     <t>איך ממשיכים מכאן</t>
   </si>
   <si>
-    <t>נשימה פשוטה</t>
-  </si>
-  <si>
-    <t>נשימה עם דיבור חיובי</t>
-  </si>
-  <si>
-    <t>נשימה תוך כדי ספירה</t>
-  </si>
-  <si>
-    <t>נשימה עם מגע</t>
-  </si>
-  <si>
-    <t>נשימה עם דיבור חיובי ומוסיקה</t>
-  </si>
-  <si>
-    <t>נשימה בהנחיה שקטה</t>
-  </si>
-  <si>
-    <t>סריקת מתחים</t>
-  </si>
-  <si>
-    <t>סריקת מתחים עם מוסיקה</t>
-  </si>
-  <si>
-    <t>סריקה בהנחיה שקטה</t>
-  </si>
-  <si>
-    <t>סריקה בהנחיה שקטה עם מוסיקה</t>
-  </si>
-  <si>
-    <t>הרפיית שרירים</t>
-  </si>
-  <si>
-    <t>הרפיית שרירים עם מוסיקה</t>
-  </si>
-  <si>
-    <t>הרפיית שרירים בהנחיה שקטה</t>
-  </si>
-  <si>
-    <t>הרפיית שרירים בהנחיה שקטה עם מוסיקה</t>
-  </si>
-  <si>
-    <t>הזמנה למקום בטוח בטבע</t>
-  </si>
-  <si>
-    <t>הזמנה למקום בטוח בחדר שאני אוהב</t>
-  </si>
-  <si>
-    <t>הזמנה למקום בטוח בטבע עם מוסיקה</t>
-  </si>
-  <si>
-    <t>הזמנה למקום בטוח בחדר שאני אוהב עם מוסיקה</t>
-  </si>
-  <si>
-    <t>הפחתת כאב</t>
-  </si>
-  <si>
-    <t>הפחתת כאב עם מוסיקה</t>
-  </si>
-  <si>
-    <t>זיהוי כלל אמונות הליבה שאני נוהג/ת להשתמש</t>
-  </si>
-  <si>
-    <t>הפרכת אמונות הליבה השליליות ואימוץ חשיבה חיובית יותר</t>
-  </si>
-  <si>
-    <t>מדיטציית קשב פתוח עם מוסיקה</t>
-  </si>
-  <si>
-    <t>מיינדפולנס וסבל</t>
-  </si>
-  <si>
-    <t>מיינדפולנס וחמלה</t>
-  </si>
-  <si>
-    <t>מדיטציית חמלה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מקום בטוח </t>
-  </si>
-  <si>
-    <t>סריקת מתחים -הנחייה</t>
-  </si>
-  <si>
-    <t>הרפיית שרירים -הנחייה</t>
-  </si>
-  <si>
-    <t>הפחתת כאב - הנחייה</t>
-  </si>
-  <si>
-    <t>מידור במקום ובזמן - הנחייה</t>
-  </si>
-  <si>
-    <t>מדיטציית קשב פתוח - הנחייה</t>
-  </si>
-  <si>
     <t>Breathing</t>
   </si>
   <si>
@@ -1334,19 +1111,292 @@
   </si>
   <si>
     <t>סוג האפרודקס</t>
+  </si>
+  <si>
+    <t>הדרכה נשימה</t>
+  </si>
+  <si>
+    <t>תרגול נשימה פשוטה</t>
+  </si>
+  <si>
+    <t>תרגול נשימה עם דיבור חיובי</t>
+  </si>
+  <si>
+    <t>תרגול נשימה תוך כדי ספירה</t>
+  </si>
+  <si>
+    <t>תרגול נשימה עם מגע</t>
+  </si>
+  <si>
+    <t>תרגול נשימה עם דיבור חיובי ומוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול נשימה בהנחיה שקטה</t>
+  </si>
+  <si>
+    <t>תרגול סריקת מתחים</t>
+  </si>
+  <si>
+    <t>תרגול סריקת מתחים עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול סריקה בהנחיה שקטה</t>
+  </si>
+  <si>
+    <t>תרגול סריקה בהנחיה שקטה עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול הרפיית שרירים</t>
+  </si>
+  <si>
+    <t>תרגול הרפיית שרירים עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול הרפיית שרירים בהנחיה שקטה</t>
+  </si>
+  <si>
+    <t>תרגול הרפיית שרירים בהנחיה שקטה עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול מקום בטוח שלי</t>
+  </si>
+  <si>
+    <t>תרגול הזמנה למקום בטוח בטבע</t>
+  </si>
+  <si>
+    <t>תרגול הזמנה למקום בטוח בחדר שאני אוהב</t>
+  </si>
+  <si>
+    <t>תרגול הזמנה למקום בטוח בגן בוטני</t>
+  </si>
+  <si>
+    <t>תרגול מקום בטוח שלי עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול הזמנה למקום בטוח בטבע עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול הזמנה למקום בטוח בחדר שאני אוהב עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול הזמנה למקום בטוח בגן בוטני עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול הפחתת כאב</t>
+  </si>
+  <si>
+    <t>תרגול מסע במערכת העיכול והרגעת הכאב</t>
+  </si>
+  <si>
+    <t>תרגול הפחתת כאב עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול מסע במערכת העיכול והרגעת הכאב עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול הפחתת כאב ושימוש במקום בטוח שלי</t>
+  </si>
+  <si>
+    <t>תרגול דחק וחשיבה
+זיהוי סיטואציה לא נעימה - מה אנו חושבים, מרגישים וכיצד מגיבים</t>
+  </si>
+  <si>
+    <t>תרגול זיהוי כלל אמונות הליבה שאני נוהג/ת להשתמש</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "אני זקוק/ה לאהבה, אישור וקבלה מהסובבים אותי"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "אני חייב/ת להמנע מחוסר קבלה"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "אני מוכרח/ת להצליח בכל מעשיי"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "אני לא יכול/ה להרשות לעצמי לעשות טעויות"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "אנשים תמיד צריכים לעשות את הדבר הנכון אחרת עליהם להיענש"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "דברים חייבים להיעשות בדרכי"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "חוסר האושר שלי נגרם מדברים שהם מחוץ לשליטתי"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "אני מוכרח לדאוג מכל דבר מסוכן"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "כל אחד צריך להיות תלוי במישהו חזק ממנו"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "אירועים בעברי הם הסיבה לבעיותיי בהווה"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "אני צריך/ה להיות מוטרד ולא מאושר כשאנשים אחרים מוטרדים או לא מאושרים"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "אני לא אמור/ה להרגיש אי נוחות או כאב"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור אמונת הליבה "לכל בעיה יש את הפתרון האידאלי שלה"</t>
+  </si>
+  <si>
+    <t>תרגול זיהוי אמונות הליבה שלי - על ארוע דחק שקרה לי לאחרונה</t>
+  </si>
+  <si>
+    <t>תרגול הפרכת אמונות הליבה השליליות ואימוץ חשיבה חיובית יותר</t>
+  </si>
+  <si>
+    <t>תרגול זיהוי כלל ההטיות הקוגניטיביות שאני נוהג/ת להשתמש</t>
+  </si>
+  <si>
+    <t>תרגול איתגור ההטיה הקוגניטיבית "הסקה שרירותית"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור ההטיה הקוגניטיבית "פרסונליזציה"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור ההטיה הקוגניטיבית "חשיבה דיכוטומית"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור ההטיה הקוגניטיבית "קריאת מחשבות"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור ההטיה הקוגניטיבית "חיזוי העתיד"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור ההטיה הקוגניטיבית "הסקה רגשית"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור ההטיה הקוגניטיבית "היגדים מוחלטים"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור ההטיה הקוגניטיבית "תיוג"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור ההטיה הקוגניטיבית "הכללה סלקטיבית"</t>
+  </si>
+  <si>
+    <t>תרגול איתגור ההטיה הקוגניטיבית "הקטנה/הגדלה"</t>
+  </si>
+  <si>
+    <t>תרגול זיהוי ההטיות הקוגניטיביות שלי - על ארוע דחק שקרה לי לאחרונה</t>
+  </si>
+  <si>
+    <t>תרגול הפרחת ההטיות הקוגניטיביות שלי ואימוץ חשיבה חיובית יותר</t>
+  </si>
+  <si>
+    <t>תרגול מידור במקום ובזמן</t>
+  </si>
+  <si>
+    <t>תרגול מידור במקום ובזמן עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול מדיטציית קשב פתוח</t>
+  </si>
+  <si>
+    <t>תרגול מדיטציית קשב פתוח מקוצרת</t>
+  </si>
+  <si>
+    <t>תרגול מדיטציית קשב פתוח עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול זיהוי החץ הראשון והשני במקרה שקרה לי</t>
+  </si>
+  <si>
+    <t>תרגול מדיטציית רגשות</t>
+  </si>
+  <si>
+    <t>תרגול מדיטציית רגשות מקוצרת</t>
+  </si>
+  <si>
+    <t>תרגול מדיטציית רגשות עם מוסיקה</t>
+  </si>
+  <si>
+    <t>תרגול מדיטציית חמלה</t>
+  </si>
+  <si>
+    <t>תרגול מדיטציית חמלה עם מוסיקה</t>
+  </si>
+  <si>
+    <t>הדרכה סריקת מתחים</t>
+  </si>
+  <si>
+    <t>הדרכה הרפיית שרירים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הדרכה מקום בטוח </t>
+  </si>
+  <si>
+    <t>הדרכה הפחתת כאב</t>
+  </si>
+  <si>
+    <t>הדרכה הפחתת כאב במקום בטוח</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> הדרכה הקדמה והסבר להתמודדות עם דפוסי חשיבה</t>
+  </si>
+  <si>
+    <t>הדרכה זיהוי אמונות הליבה אוטומטיות שלי</t>
+  </si>
+  <si>
+    <t>הדרכה איתגור אמונות ליבה אוטומטיות</t>
+  </si>
+  <si>
+    <t>הדרכה זיהוי אמונות הליבה שלי - על ארוע שקרה לי לאחרונה ואימוץ חשיבה חיובית יותר</t>
+  </si>
+  <si>
+    <t>הדרכה זיהוי ההטיות הקוגניטיביות שלי</t>
+  </si>
+  <si>
+    <t>הדרכה איתגור הטיות קוגניטיביות</t>
+  </si>
+  <si>
+    <t>הדרכה זיהוי ההטיות הקוגניטיביות שלי - על ארוע שקרה לי לאחרונה ואימוץ חשיבה חיובית יותר</t>
+  </si>
+  <si>
+    <t>הדרכה מידור במקום ובזמן</t>
+  </si>
+  <si>
+    <t>הדרכה מיינדפולנס על קצה המזלג</t>
+  </si>
+  <si>
+    <t>הדרכה מדיטציית קשב פתוח - הנחייה</t>
+  </si>
+  <si>
+    <t>הדרכה מיינדפולנס וסבל</t>
+  </si>
+  <si>
+    <t>הדרכה מיינדפולנס ורגשות</t>
+  </si>
+  <si>
+    <t>הדרכה מיינדפולנס וחמלה</t>
+  </si>
+  <si>
+    <t>הדרכה יוצאים לדרך עצמאית
+חשיבות הטמעת התרגול בשגרת החיים</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1390,14 +1440,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1422,6 +1472,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1812,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>21</v>
@@ -1823,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1834,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -1874,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1938,7 +1991,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -1952,10 +2005,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D7" s="12">
         <v>4</v>
@@ -1966,7 +2019,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>23</v>
@@ -1980,10 +2033,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12">
         <v>4</v>
@@ -1994,10 +2047,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D10" s="12">
         <v>4</v>
@@ -2008,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D11" s="12">
         <v>4</v>
@@ -2022,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D12" s="12">
         <v>4</v>
@@ -2036,10 +2089,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D13" s="12">
         <v>4</v>
@@ -2050,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D14" s="12">
         <v>4</v>
@@ -2064,10 +2117,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D15" s="12">
         <v>4</v>
@@ -2078,10 +2131,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -2092,10 +2145,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="D17" s="12">
         <v>4</v>
@@ -2106,10 +2159,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D18" s="12">
         <v>4</v>
@@ -2120,10 +2173,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D19" s="12">
         <v>4</v>
@@ -2134,10 +2187,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="D20" s="12">
         <v>4</v>
@@ -2148,10 +2201,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="D21" s="12">
         <v>1</v>
@@ -2168,8 +2221,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2184,19 +2237,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>358</v>
       </c>
       <c r="B1" t="s">
-        <v>433</v>
+        <v>359</v>
       </c>
       <c r="C1" t="s">
-        <v>431</v>
+        <v>357</v>
       </c>
       <c r="D1" t="s">
-        <v>434</v>
+        <v>360</v>
       </c>
       <c r="E1" t="s">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -2207,19 +2260,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D2" s="12">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2227,19 +2280,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D3" s="12">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2247,19 +2300,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D4" s="12">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2267,19 +2320,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D5" s="12">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2287,19 +2340,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D6" s="12">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2307,19 +2360,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D7" s="12">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>348</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2327,19 +2380,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D8" s="12">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2347,19 +2400,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>350</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2367,19 +2420,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D10" s="12">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>351</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2387,19 +2440,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D11" s="12">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2407,19 +2460,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D12" s="12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2427,19 +2480,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="F13" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2447,19 +2500,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D14" s="12">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2467,19 +2520,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D15" s="12">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>302</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2487,19 +2540,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D16" s="12">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
-        <v>357</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2507,19 +2560,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s">
-        <v>358</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2527,19 +2580,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="F18" t="s">
-        <v>359</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2547,19 +2600,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="F19" t="s">
-        <v>360</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2567,19 +2620,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D20" s="12">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="F20" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2587,19 +2640,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D21" s="12">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2607,19 +2660,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D22" s="12">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="F22" t="s">
-        <v>363</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2627,19 +2680,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D23" s="12">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="F23" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2647,19 +2700,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D24" s="12">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="F24" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2667,19 +2720,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D25" s="12">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="F25" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2687,19 +2740,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" t="s">
         <v>293</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>306</v>
-      </c>
-      <c r="F26" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2707,19 +2760,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2727,19 +2780,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D28" s="12">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="F28" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2747,19 +2800,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D29" s="12">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="F29" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2767,19 +2820,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D30" s="12">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="F30" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2787,19 +2840,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D31" s="12">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="F31" t="s">
-        <v>372</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2807,19 +2860,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>235</v>
       </c>
-      <c r="C32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D32" s="12">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>309</v>
-      </c>
       <c r="F32" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2827,19 +2880,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D33" s="12">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="F33" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2847,19 +2900,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D34" s="12">
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2867,19 +2920,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>238</v>
       </c>
-      <c r="C35" t="s">
-        <v>293</v>
-      </c>
-      <c r="D35" s="12">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>312</v>
-      </c>
       <c r="F35" t="s">
-        <v>376</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2887,19 +2940,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D36" s="12">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2907,19 +2960,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
         <v>240</v>
       </c>
-      <c r="C37" t="s">
-        <v>293</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>314</v>
-      </c>
       <c r="F37" t="s">
-        <v>378</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2927,19 +2980,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
         <v>241</v>
       </c>
-      <c r="C38" t="s">
-        <v>293</v>
-      </c>
-      <c r="D38" s="12">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>315</v>
-      </c>
       <c r="F38" t="s">
-        <v>379</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2947,19 +3000,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
         <v>242</v>
       </c>
-      <c r="C39" t="s">
-        <v>293</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>316</v>
-      </c>
       <c r="F39" t="s">
-        <v>380</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2967,19 +3020,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
         <v>243</v>
       </c>
-      <c r="C40" t="s">
-        <v>293</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>317</v>
-      </c>
       <c r="F40" t="s">
-        <v>381</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2987,19 +3040,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
         <v>244</v>
       </c>
-      <c r="C41" t="s">
-        <v>293</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>318</v>
-      </c>
       <c r="F41" t="s">
-        <v>382</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -3007,19 +3060,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D42" s="12">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="F42" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -3027,19 +3080,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D43" s="12">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="F43" t="s">
-        <v>384</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3047,19 +3100,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D44" s="12">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="F44" t="s">
-        <v>385</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -3067,19 +3120,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D45" s="12">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="F45" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -3087,19 +3140,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D46" s="12">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="F46" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -3107,19 +3160,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D47" s="12">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="F47" t="s">
-        <v>388</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -3127,19 +3180,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D48" s="12">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="F48" t="s">
-        <v>389</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3147,19 +3200,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D49" s="12">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="F49" t="s">
-        <v>390</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3167,19 +3220,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D50" s="12">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="F50" t="s">
-        <v>391</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3187,19 +3240,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D51" s="12">
         <v>0</v>
       </c>
       <c r="E51" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" t="s">
         <v>318</v>
-      </c>
-      <c r="F51" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3207,19 +3260,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D52" s="12">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="F52" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3227,19 +3280,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D53" s="12">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>319</v>
+        <v>245</v>
       </c>
       <c r="F53" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3247,19 +3300,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D54" s="12">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="F54" t="s">
-        <v>395</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3267,19 +3320,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D55" s="12">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="F55" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3287,19 +3340,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D56" s="12">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="F56" t="s">
-        <v>397</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3307,19 +3360,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D57" s="12">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="F57" t="s">
-        <v>398</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3327,19 +3380,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D58" s="12">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="F58" t="s">
-        <v>399</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3347,19 +3400,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D59" s="12">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="F59" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3367,19 +3420,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D60" s="12">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="F60" t="s">
-        <v>401</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3387,19 +3440,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D61" s="12">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="F61" t="s">
-        <v>402</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3407,19 +3460,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D62" s="12">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="F62" t="s">
-        <v>403</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3427,19 +3480,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D63" s="12">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="F63" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3447,19 +3500,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D64" s="12">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="F64" t="s">
-        <v>405</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3467,19 +3520,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D65" s="12">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="F65" t="s">
-        <v>406</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3487,19 +3540,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D66" s="12">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="F66" t="s">
-        <v>407</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3507,19 +3560,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D67" s="12">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="F67" t="s">
-        <v>408</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3527,19 +3580,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D68" s="12">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="F68" t="s">
-        <v>409</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3547,19 +3600,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D69" s="12">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="F69" t="s">
-        <v>410</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3567,19 +3620,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D70" s="12">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="F70" t="s">
-        <v>411</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3587,19 +3640,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D71" s="12">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="F71" t="s">
-        <v>412</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3607,19 +3660,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D72" s="12">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="F72" t="s">
-        <v>413</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3627,19 +3680,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D73" s="12">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="F73" t="s">
-        <v>414</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3647,19 +3700,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D74" s="12">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="F74" t="s">
-        <v>415</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3667,19 +3720,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D75" s="12">
         <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="F75" t="s">
-        <v>416</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3687,19 +3740,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D76" s="12">
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="F76" t="s">
-        <v>417</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3707,19 +3760,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D77" s="12">
         <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="F77" t="s">
-        <v>418</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3727,19 +3780,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D78" s="12">
         <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="F78" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3747,19 +3800,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D79" s="12">
         <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="F79" t="s">
-        <v>420</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3767,19 +3820,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D80" s="12">
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="F80" t="s">
-        <v>421</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3787,19 +3840,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D81" s="12">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="F81" t="s">
-        <v>422</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3807,19 +3860,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D82" s="12">
         <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="F82" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3827,19 +3880,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D83" s="12">
         <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="F83" t="s">
-        <v>424</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3847,19 +3900,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D84" s="12">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="F84" t="s">
-        <v>425</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3867,19 +3920,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D85" s="12">
         <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="F85" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3887,19 +3940,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D86" s="12">
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="F86" t="s">
-        <v>427</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3907,19 +3960,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D87" s="12">
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="F87" t="s">
-        <v>428</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3927,19 +3980,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D88" s="12">
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="F88" t="s">
-        <v>429</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3947,23 +4000,23 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="F89" t="s">
-        <v>430</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3972,10 +4025,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3986,9 +4039,10 @@
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4008,15 +4062,15 @@
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>362</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4034,12 +4088,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>173</v>
+        <v>363</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4054,15 +4108,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4077,15 +4132,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>175</v>
+      <c r="B5" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4100,15 +4156,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>176</v>
+        <v>366</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4123,15 +4180,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>177</v>
+      <c r="B7" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4146,15 +4204,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>178</v>
+      <c r="B8" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4169,15 +4228,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>200</v>
+      <c r="B9" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -4194,13 +4254,14 @@
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>179</v>
+      <c r="B10" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -4215,15 +4276,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>180</v>
+      <c r="B11" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -4238,15 +4300,16 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>181</v>
+      <c r="B12" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4261,15 +4324,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>182</v>
+      <c r="B13" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -4284,15 +4348,16 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>201</v>
+      <c r="B14" s="14" t="s">
+        <v>432</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -4309,13 +4374,14 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>183</v>
+      <c r="B15" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -4330,15 +4396,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>184</v>
+      <c r="B16" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -4353,15 +4420,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>185</v>
+      <c r="B17" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -4376,15 +4444,16 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>186</v>
+      <c r="B18" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -4399,15 +4468,15 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>199</v>
+      <c r="B19" s="14" t="s">
+        <v>433</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -4425,12 +4494,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>43</v>
+      <c r="B20" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -4445,15 +4514,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>187</v>
+      <c r="B21" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -4462,21 +4532,22 @@
         <v>20</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>188</v>
+      <c r="B22" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -4485,21 +4556,22 @@
         <v>21</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>44</v>
+      <c r="B23" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -4508,21 +4580,22 @@
         <v>22</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>45</v>
+      <c r="B24" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -4531,21 +4604,22 @@
         <v>23</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>189</v>
+      <c r="B25" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4554,21 +4628,22 @@
         <v>24</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>190</v>
+      <c r="B26" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4577,21 +4652,22 @@
         <v>25</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>46</v>
+      <c r="B27" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4600,21 +4676,22 @@
         <v>26</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>202</v>
+      <c r="B28" s="14" t="s">
+        <v>434</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4631,13 +4708,14 @@
       <c r="G28" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>191</v>
+      <c r="B29" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4652,15 +4730,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>55</v>
+      <c r="B30" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4669,21 +4748,22 @@
         <v>29</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>192</v>
+      <c r="B31" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4692,21 +4772,22 @@
         <v>30</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>56</v>
+      <c r="B32" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4715,21 +4796,22 @@
         <v>31</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>60</v>
+      <c r="B33" s="14" t="s">
+        <v>435</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -4738,7 +4820,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -4746,13 +4828,14 @@
       <c r="G33" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>62</v>
+      <c r="B34" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -4761,21 +4844,21 @@
         <v>33</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>65</v>
+      <c r="B35" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -4793,12 +4876,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>66</v>
+      <c r="B36" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -4813,15 +4896,16 @@
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>67</v>
+      <c r="B37" s="14" t="s">
+        <v>437</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -4830,7 +4914,7 @@
         <v>36</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4838,13 +4922,14 @@
       <c r="G37" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>193</v>
+      <c r="B38" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -4853,21 +4938,22 @@
         <v>37</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>70</v>
+      <c r="B39" s="14" t="s">
+        <v>438</v>
       </c>
       <c r="C39">
         <v>9</v>
@@ -4876,7 +4962,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -4884,13 +4970,14 @@
       <c r="G39" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>72</v>
+      <c r="B40" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -4899,21 +4986,22 @@
         <v>39</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F40">
         <v>8</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>73</v>
+      <c r="B41" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -4922,21 +5010,22 @@
         <v>40</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F41">
         <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>74</v>
+      <c r="B42" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -4945,21 +5034,22 @@
         <v>41</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F42">
         <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>75</v>
+      <c r="B43" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="C43">
         <v>9</v>
@@ -4968,21 +5058,22 @@
         <v>42</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F43">
         <v>8</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>76</v>
+      <c r="B44" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -4991,21 +5082,22 @@
         <v>43</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F44">
         <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>77</v>
+      <c r="B45" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="C45">
         <v>9</v>
@@ -5014,21 +5106,22 @@
         <v>44</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F45">
         <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>78</v>
+      <c r="B46" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="C46">
         <v>9</v>
@@ -5037,21 +5130,22 @@
         <v>45</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F46">
         <v>8</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>79</v>
+      <c r="B47" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="C47">
         <v>9</v>
@@ -5060,21 +5154,22 @@
         <v>46</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F47">
         <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>80</v>
+      <c r="B48" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="C48">
         <v>9</v>
@@ -5083,21 +5178,22 @@
         <v>47</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F48">
         <v>8</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>81</v>
+      <c r="B49" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="C49">
         <v>9</v>
@@ -5106,21 +5202,22 @@
         <v>48</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F49">
         <v>8</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>82</v>
+      <c r="B50" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="C50">
         <v>9</v>
@@ -5129,21 +5226,22 @@
         <v>49</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F50">
         <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>83</v>
+      <c r="B51" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="C51">
         <v>9</v>
@@ -5152,21 +5250,22 @@
         <v>50</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F51">
         <v>8</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>84</v>
+      <c r="B52" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="C52">
         <v>9</v>
@@ -5175,21 +5274,22 @@
         <v>51</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F52">
         <v>8</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>98</v>
+      <c r="B53" s="14" t="s">
+        <v>439</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -5198,7 +5298,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -5206,13 +5306,14 @@
       <c r="G53" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>100</v>
+      <c r="B54" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="C54">
         <v>10</v>
@@ -5221,21 +5322,22 @@
         <v>53</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F54">
         <v>9</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>194</v>
+      <c r="B55" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="C55">
         <v>10</v>
@@ -5244,21 +5346,22 @@
         <v>54</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F55">
         <v>9</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>103</v>
+      <c r="B56" s="14" t="s">
+        <v>440</v>
       </c>
       <c r="C56">
         <v>11</v>
@@ -5267,7 +5370,7 @@
         <v>55</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5275,13 +5378,14 @@
       <c r="G56" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>105</v>
+      <c r="B57" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="C57">
         <v>11</v>
@@ -5290,21 +5394,22 @@
         <v>56</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>107</v>
+      <c r="B58" s="14" t="s">
+        <v>441</v>
       </c>
       <c r="C58">
         <v>12</v>
@@ -5313,7 +5418,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F58">
         <v>11</v>
@@ -5321,13 +5426,14 @@
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>109</v>
+      <c r="B59" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="C59">
         <v>12</v>
@@ -5336,21 +5442,22 @@
         <v>58</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="F59">
         <v>11</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>110</v>
+      <c r="B60" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="C60">
         <v>12</v>
@@ -5359,21 +5466,22 @@
         <v>59</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="F60">
         <v>11</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>111</v>
+      <c r="B61" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="C61">
         <v>12</v>
@@ -5382,21 +5490,22 @@
         <v>60</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F61">
         <v>11</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>112</v>
+      <c r="B62" s="4" t="s">
+        <v>411</v>
       </c>
       <c r="C62">
         <v>12</v>
@@ -5405,21 +5514,22 @@
         <v>61</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="F62">
         <v>11</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>113</v>
+      <c r="B63" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -5428,21 +5538,22 @@
         <v>62</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="F63">
         <v>11</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>114</v>
+      <c r="B64" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="C64">
         <v>12</v>
@@ -5451,21 +5562,22 @@
         <v>63</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="F64">
         <v>11</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>115</v>
+      <c r="B65" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="C65">
         <v>12</v>
@@ -5474,21 +5586,22 @@
         <v>64</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F65">
         <v>11</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>116</v>
+      <c r="B66" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="C66">
         <v>12</v>
@@ -5497,21 +5610,22 @@
         <v>65</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="F66">
         <v>11</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>117</v>
+      <c r="B67" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="C67">
         <v>12</v>
@@ -5520,21 +5634,22 @@
         <v>66</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="F67">
         <v>11</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>118</v>
+      <c r="B68" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="C68">
         <v>12</v>
@@ -5543,21 +5658,22 @@
         <v>67</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="F68">
         <v>11</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>129</v>
+      <c r="B69" s="14" t="s">
+        <v>442</v>
       </c>
       <c r="C69">
         <v>13</v>
@@ -5566,7 +5682,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="F69">
         <v>12</v>
@@ -5574,13 +5690,14 @@
       <c r="G69" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>131</v>
+      <c r="B70" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="C70">
         <v>13</v>
@@ -5589,21 +5706,22 @@
         <v>69</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F70">
         <v>12</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>132</v>
+      <c r="B71" s="4" t="s">
+        <v>419</v>
       </c>
       <c r="C71">
         <v>13</v>
@@ -5612,21 +5730,22 @@
         <v>70</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F71">
         <v>12</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>203</v>
+      <c r="B72" s="14" t="s">
+        <v>443</v>
       </c>
       <c r="C72">
         <v>14</v>
@@ -5635,7 +5754,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5643,13 +5762,14 @@
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>133</v>
+      <c r="B73" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="C73">
         <v>14</v>
@@ -5658,21 +5778,22 @@
         <v>72</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>135</v>
+      <c r="B74" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="C74">
         <v>14</v>
@@ -5681,21 +5802,21 @@
         <v>73</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>145</v>
+      <c r="B75" s="14" t="s">
+        <v>444</v>
       </c>
       <c r="C75">
         <v>15</v>
@@ -5704,7 +5825,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5713,12 +5834,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>204</v>
+      <c r="B76" s="14" t="s">
+        <v>445</v>
       </c>
       <c r="C76">
         <v>16</v>
@@ -5727,7 +5848,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -5736,12 +5857,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>146</v>
+      <c r="B77" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="C77">
         <v>16</v>
@@ -5750,21 +5871,21 @@
         <v>76</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>150</v>
+      <c r="B78" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="C78">
         <v>16</v>
@@ -5773,21 +5894,22 @@
         <v>77</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>195</v>
+      <c r="B79" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="C79">
         <v>16</v>
@@ -5796,21 +5918,22 @@
         <v>78</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>196</v>
+      <c r="B80" s="14" t="s">
+        <v>446</v>
       </c>
       <c r="C80">
         <v>17</v>
@@ -5819,7 +5942,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -5828,12 +5951,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>157</v>
+      <c r="B81" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="C81">
         <v>17</v>
@@ -5842,21 +5965,22 @@
         <v>80</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>155</v>
+      <c r="B82" s="14" t="s">
+        <v>447</v>
       </c>
       <c r="C82">
         <v>18</v>
@@ -5865,7 +5989,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -5874,12 +5998,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>159</v>
+      <c r="B83" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="C83">
         <v>18</v>
@@ -5888,21 +6012,22 @@
         <v>82</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>160</v>
+      <c r="B84" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="C84">
         <v>18</v>
@@ -5911,21 +6036,22 @@
         <v>83</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>161</v>
+      <c r="B85" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="C85">
         <v>18</v>
@@ -5934,21 +6060,22 @@
         <v>84</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>197</v>
+      <c r="B86" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="C86">
         <v>19</v>
@@ -5957,7 +6084,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5966,12 +6093,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>198</v>
+      <c r="B87" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="C87">
         <v>19</v>
@@ -5980,21 +6107,22 @@
         <v>86</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>167</v>
+      <c r="B88" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="C88">
         <v>19</v>
@@ -6003,21 +6131,22 @@
         <v>87</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>170</v>
+      <c r="B89" s="14" t="s">
+        <v>449</v>
       </c>
       <c r="C89">
         <v>20</v>
@@ -6026,7 +6155,7 @@
         <v>88</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6034,6 +6163,7 @@
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="I89" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/checkWork - 25.06.23.xlsx
+++ b/Data/checkWork - 25.06.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D75A83B-4EC5-4F9C-A9CE-97193A6A2689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E812423-309D-4FBC-8118-B3E26B73BA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="452">
   <si>
     <t>שלב מס'</t>
   </si>
@@ -1377,19 +1377,32 @@
   <si>
     <t>הדרכה יוצאים לדרך עצמאית
 חשיבות הטמעת התרגול בשגרת החיים</t>
+  </si>
+  <si>
+    <t>תאור</t>
+  </si>
+  <si>
+    <t>תרגול דחק וחשיבה. זיהוי סיטואציה לא נעימה - מה אנו חושבים, מרגישים וכיצד מגיבים</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1440,14 +1453,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1473,8 +1486,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2219,10 +2247,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,9 +2261,10 @@
     <col min="4" max="4" width="14" style="12" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="80.21875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>358</v>
       </c>
@@ -2254,8 +2283,11 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2274,8 +2306,11 @@
       <c r="F2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2294,8 +2329,11 @@
       <c r="F3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2314,8 +2352,11 @@
       <c r="F4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2334,8 +2375,11 @@
       <c r="F5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2354,8 +2398,11 @@
       <c r="F6" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2374,8 +2421,11 @@
       <c r="F7" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2394,8 +2444,11 @@
       <c r="F8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2414,8 +2467,11 @@
       <c r="F9" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="18" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2434,8 +2490,11 @@
       <c r="F10" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2454,8 +2513,11 @@
       <c r="F11" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2474,8 +2536,11 @@
       <c r="F12" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2494,8 +2559,11 @@
       <c r="F13" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2514,8 +2582,11 @@
       <c r="F14" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="18" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2534,8 +2605,11 @@
       <c r="F15" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2554,8 +2628,11 @@
       <c r="F16" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2574,8 +2651,11 @@
       <c r="F17" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2594,8 +2674,11 @@
       <c r="F18" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2614,8 +2697,11 @@
       <c r="F19" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2634,8 +2720,11 @@
       <c r="F20" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2654,8 +2743,11 @@
       <c r="F21" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="F22" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2694,8 +2789,11 @@
       <c r="F23" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2714,8 +2812,11 @@
       <c r="F24" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2734,8 +2835,11 @@
       <c r="F25" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2754,8 +2858,11 @@
       <c r="F26" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2774,8 +2881,11 @@
       <c r="F27" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2794,8 +2904,11 @@
       <c r="F28" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2814,8 +2927,11 @@
       <c r="F29" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2834,8 +2950,11 @@
       <c r="F30" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2854,8 +2973,11 @@
       <c r="F31" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2874,8 +2996,11 @@
       <c r="F32" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2894,8 +3019,11 @@
       <c r="F33" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="18" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2914,8 +3042,11 @@
       <c r="F34" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2934,8 +3065,11 @@
       <c r="F35" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2954,8 +3088,11 @@
       <c r="F36" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2974,8 +3111,11 @@
       <c r="F37" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2994,8 +3134,11 @@
       <c r="F38" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3014,8 +3157,11 @@
       <c r="F39" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3034,8 +3180,11 @@
       <c r="F40" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3054,8 +3203,11 @@
       <c r="F41" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3074,8 +3226,11 @@
       <c r="F42" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3094,8 +3249,11 @@
       <c r="F43" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3114,8 +3272,11 @@
       <c r="F44" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3134,8 +3295,11 @@
       <c r="F45" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3154,8 +3318,11 @@
       <c r="F46" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3174,8 +3341,11 @@
       <c r="F47" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3194,8 +3364,11 @@
       <c r="F48" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3214,28 +3387,34 @@
       <c r="F49" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C50" t="s">
-        <v>219</v>
-      </c>
-      <c r="D50" s="12">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C50" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="19">
+        <v>0</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="15" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3254,8 +3433,11 @@
       <c r="F51" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3274,8 +3456,11 @@
       <c r="F52" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3294,8 +3479,11 @@
       <c r="F53" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3314,8 +3502,11 @@
       <c r="F54" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3334,8 +3525,11 @@
       <c r="F55" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3354,8 +3548,11 @@
       <c r="F56" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3374,8 +3571,11 @@
       <c r="F57" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3394,8 +3594,11 @@
       <c r="F58" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3414,8 +3617,11 @@
       <c r="F59" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3434,8 +3640,11 @@
       <c r="F60" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3454,8 +3663,11 @@
       <c r="F61" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3474,8 +3686,11 @@
       <c r="F62" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3494,8 +3709,11 @@
       <c r="F63" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3514,8 +3732,11 @@
       <c r="F64" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3534,8 +3755,11 @@
       <c r="F65" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3554,8 +3778,11 @@
       <c r="F66" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3574,8 +3801,11 @@
       <c r="F67" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3594,8 +3824,11 @@
       <c r="F68" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3614,8 +3847,11 @@
       <c r="F69" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3634,8 +3870,11 @@
       <c r="F70" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3654,8 +3893,11 @@
       <c r="F71" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3674,8 +3916,11 @@
       <c r="F72" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3694,8 +3939,11 @@
       <c r="F73" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3714,8 +3962,11 @@
       <c r="F74" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3734,8 +3985,11 @@
       <c r="F75" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="18" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3754,8 +4008,11 @@
       <c r="F76" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3774,8 +4031,11 @@
       <c r="F77" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3794,8 +4054,11 @@
       <c r="F78" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3814,8 +4077,11 @@
       <c r="F79" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3834,8 +4100,11 @@
       <c r="F80" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3854,8 +4123,11 @@
       <c r="F81" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3874,8 +4146,11 @@
       <c r="F82" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="18" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3894,8 +4169,11 @@
       <c r="F83" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3914,8 +4192,11 @@
       <c r="F84" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3934,8 +4215,11 @@
       <c r="F85" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3954,8 +4238,11 @@
       <c r="F86" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3974,8 +4261,11 @@
       <c r="F87" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3994,8 +4284,11 @@
       <c r="F88" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="17" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4014,9 +4307,12 @@
       <c r="F89" t="s">
         <v>356</v>
       </c>
+      <c r="G89" s="18" t="s">
+        <v>449</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4027,8 +4323,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView rightToLeft="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
